--- a/ghc_perf.xlsx
+++ b/ghc_perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinqi\Desktop\15618\15618-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFEEBC6-60C7-4EDF-A155-7FD4BE3E631F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73E944F-984F-4BB9-8E92-E676A850968C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48" yWindow="324" windowWidth="12468" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,39 +741,59 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2">
-        <v>1.096E-3</v>
+        <v>6.8800000000000003E-4</v>
       </c>
       <c r="D28" s="2">
-        <v>1.0888E-2</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>5.5900000000000004E-4</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.8599999999999998E-4</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1500</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="C29" s="2">
+        <v>3.836E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2.183E-3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.2620000000000001E-3</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2000</v>
       </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="C30" s="2">
+        <v>6.1409999999999998E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3.1740000000000002E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.088E-3</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5000</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="2">
+        <v>5.8057999999999998E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2.08034E-2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1.4331999999999999E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -784,9 +804,11 @@
         <v>0.24715000000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.33942499999999998</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>7.1895000000000001E-2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.9059999999999999E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
